--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Workspace_Business\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1080">
   <si>
     <t>ObjectName</t>
   </si>
@@ -3267,6 +3267,9 @@
   </si>
   <si>
     <t>Opportunity_ID</t>
+  </si>
+  <si>
+    <t>Contacts</t>
   </si>
 </sst>
 </file>
@@ -16514,15 +16517,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G951"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -16560,6 +16563,15 @@
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1079</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G33" si="0">IF(A2&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;");","")</f>
@@ -38944,16 +38956,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
